--- a/data/trans_orig/P21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>233550</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>221546</v>
+        <v>222210</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244021</v>
+        <v>243592</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.855462203926161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8114951725938954</v>
+        <v>0.8139247145948036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8938168299361966</v>
+        <v>0.8922474403384562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -765,19 +765,19 @@
         <v>204743</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188963</v>
+        <v>191183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217060</v>
+        <v>218353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7849425369135149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7244441323795048</v>
+        <v>0.7329566563855815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8321653844546536</v>
+        <v>0.8371196800568639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>423</v>
@@ -786,19 +786,19 @@
         <v>438293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>419833</v>
+        <v>419411</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>455676</v>
+        <v>455939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8210063021340751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7864281814058691</v>
+        <v>0.7856382007680073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8535691908612163</v>
+        <v>0.8540622968974879</v>
       </c>
     </row>
     <row r="5">
@@ -862,19 +862,19 @@
         <v>39460</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28989</v>
+        <v>29418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51464</v>
+        <v>50800</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.144537796073839</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1061831700638038</v>
+        <v>0.107752559661544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1885048274061049</v>
+        <v>0.1860752854051966</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -883,19 +883,19 @@
         <v>56095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43778</v>
+        <v>42485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71875</v>
+        <v>69655</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2150574630864851</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1678346155453464</v>
+        <v>0.1628803199431361</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2755558676204953</v>
+        <v>0.2670433436144181</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -904,19 +904,19 @@
         <v>95555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78172</v>
+        <v>77909</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114015</v>
+        <v>114437</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1789936978659249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1464308091387838</v>
+        <v>0.1459377031025121</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2135718185941309</v>
+        <v>0.2143617992319927</v>
       </c>
     </row>
     <row r="7">
@@ -1008,19 +1008,19 @@
         <v>417603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>398004</v>
+        <v>400146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432531</v>
+        <v>432952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8469358846506523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8071867505395904</v>
+        <v>0.811532220318777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8772109593519093</v>
+        <v>0.8780642837598329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -1029,19 +1029,19 @@
         <v>375930</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357426</v>
+        <v>356616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397656</v>
+        <v>395576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7459674842439856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7092502162408935</v>
+        <v>0.7076421920302332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7890795692240656</v>
+        <v>0.7849531884961659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>768</v>
@@ -1050,19 +1050,19 @@
         <v>793532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>766582</v>
+        <v>766868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>818117</v>
+        <v>816578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7959010832647253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7688705107992876</v>
+        <v>0.7691567817336304</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8205593875470738</v>
+        <v>0.8190158394358779</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>6840</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2767</v>
+        <v>2130</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14671</v>
+        <v>13816</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01387283765590908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005612639114502625</v>
+        <v>0.004320440180396156</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02975436517163433</v>
+        <v>0.02801974522561795</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1100,19 +1100,19 @@
         <v>8113</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3937</v>
+        <v>4026</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15600</v>
+        <v>16104</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01609888313463627</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007811696270253541</v>
+        <v>0.007989271959851715</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03095619922320007</v>
+        <v>0.03195585398202624</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1121,19 +1121,19 @@
         <v>14953</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8890</v>
+        <v>8524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25119</v>
+        <v>23987</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01499799947312434</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008916576289584</v>
+        <v>0.008549033668217989</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02519437855998159</v>
+        <v>0.02405871381582381</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>68632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53782</v>
+        <v>53830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87399</v>
+        <v>85846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1391912776934386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1090754084934621</v>
+        <v>0.1091713669084229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1772526135708122</v>
+        <v>0.1741031695872252</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1171,19 +1171,19 @@
         <v>119906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98603</v>
+        <v>101644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137071</v>
+        <v>139326</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2379336326213781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1956608262596202</v>
+        <v>0.2016958544694162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2719947842407214</v>
+        <v>0.2764681063828562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -1192,19 +1192,19 @@
         <v>188538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164591</v>
+        <v>165602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213220</v>
+        <v>215493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1891009172621503</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1650819436518173</v>
+        <v>0.166096730780438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.213856683801538</v>
+        <v>0.2161364870187621</v>
       </c>
     </row>
     <row r="11">
@@ -1296,19 +1296,19 @@
         <v>250377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>233223</v>
+        <v>234385</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>263787</v>
+        <v>264086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7852594015799615</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7314582906424045</v>
+        <v>0.7351054246717977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8273176958748194</v>
+        <v>0.8282571809262862</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>251</v>
@@ -1317,19 +1317,19 @@
         <v>249451</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>233499</v>
+        <v>233102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>263922</v>
+        <v>264772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7437163866181769</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6961559769294193</v>
+        <v>0.6949718536541633</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7868584855317974</v>
+        <v>0.7893920870282958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>496</v>
@@ -1338,19 +1338,19 @@
         <v>499828</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>474372</v>
+        <v>478353</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>521829</v>
+        <v>520817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7639619506389516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7250528672125013</v>
+        <v>0.731137637016934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7975888715700535</v>
+        <v>0.796041634034993</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6364</v>
+        <v>5891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00591613663077731</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01996083681779029</v>
+        <v>0.018474902441237</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6457</v>
+        <v>6801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002883168759519114</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009868759646834669</v>
+        <v>0.01039446311875456</v>
       </c>
     </row>
     <row r="14">
@@ -1430,19 +1430,19 @@
         <v>66583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52538</v>
+        <v>52919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83427</v>
+        <v>82329</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2088244617892611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1647766261571484</v>
+        <v>0.1659706250134193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2616526342862212</v>
+        <v>0.2582100696148937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>84</v>
@@ -1451,19 +1451,19 @@
         <v>85961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71490</v>
+        <v>70640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101913</v>
+        <v>102310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2562836133818231</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2131415144682024</v>
+        <v>0.2106079129717041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3038440230705803</v>
+        <v>0.3050281463458367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -1472,19 +1472,19 @@
         <v>152543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130830</v>
+        <v>131080</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178691</v>
+        <v>174308</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2331548806015293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1999669317136717</v>
+        <v>0.2003488309395866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.273119395038508</v>
+        <v>0.2664209798401891</v>
       </c>
     </row>
     <row r="15">
@@ -1576,19 +1576,19 @@
         <v>284065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>268120</v>
+        <v>267046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>298951</v>
+        <v>299349</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7919945173191512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7475372562218324</v>
+        <v>0.7445417116488047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8334962254402916</v>
+        <v>0.8346054345192663</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>275</v>
@@ -1597,19 +1597,19 @@
         <v>267697</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>250355</v>
+        <v>249239</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>283682</v>
+        <v>284023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7206694068376938</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6739832268484713</v>
+        <v>0.6709789847698772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7637025575082443</v>
+        <v>0.7646209410965782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>560</v>
@@ -1618,19 +1618,19 @@
         <v>551762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>527925</v>
+        <v>529749</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>573945</v>
+        <v>576165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7557074947192883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7230593251190933</v>
+        <v>0.7255573892818095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7860896750690961</v>
+        <v>0.7891296318335407</v>
       </c>
     </row>
     <row r="17">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9436</v>
+        <v>9667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006675892481918784</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02630928573858441</v>
+        <v>0.02695145795770103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1668,19 +1668,19 @@
         <v>6316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2337</v>
+        <v>2494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12897</v>
+        <v>13061</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01700241155682438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00629152796827153</v>
+        <v>0.006714615767382539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03471976754481663</v>
+        <v>0.03516168629621672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1689,19 +1689,19 @@
         <v>8710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4174</v>
+        <v>3856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16998</v>
+        <v>16608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0119295630128103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005716781591205939</v>
+        <v>0.00528117066487174</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02328151841804681</v>
+        <v>0.02274738423795193</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>72211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57740</v>
+        <v>57507</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87421</v>
+        <v>89194</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.20132959019893</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1609830887682729</v>
+        <v>0.1603345486580009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2437360985718197</v>
+        <v>0.2486797597465883</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -1739,19 +1739,19 @@
         <v>97443</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>81193</v>
+        <v>81258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114015</v>
+        <v>115222</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2623281816054818</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2185798116175279</v>
+        <v>0.2187561177620375</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3069402386200691</v>
+        <v>0.3101893131754153</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>178</v>
@@ -1760,19 +1760,19 @@
         <v>169654</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148569</v>
+        <v>146031</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192885</v>
+        <v>190308</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2323629422679014</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2034837159248424</v>
+        <v>0.2000074475834346</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2641805907757114</v>
+        <v>0.2606498801742675</v>
       </c>
     </row>
     <row r="19">
@@ -1864,19 +1864,19 @@
         <v>168536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157593</v>
+        <v>156518</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178370</v>
+        <v>178411</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8289681958704688</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7751455378173788</v>
+        <v>0.7698572522604844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8773392350988233</v>
+        <v>0.8775406549154096</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -1885,19 +1885,19 @@
         <v>165627</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152858</v>
+        <v>152708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176355</v>
+        <v>176173</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7975576674033317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7360699194297636</v>
+        <v>0.7353487277661467</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8492142997527176</v>
+        <v>0.8483389814500223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>328</v>
@@ -1906,19 +1906,19 @@
         <v>334163</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>317970</v>
+        <v>318712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>350474</v>
+        <v>348665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8130963179611949</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7736951673576168</v>
+        <v>0.775501291429605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8527840031692084</v>
+        <v>0.8483816921356749</v>
       </c>
     </row>
     <row r="21">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4617</v>
+        <v>4975</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004419274006914694</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02270921843852037</v>
+        <v>0.0244705123926384</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6941</v>
+        <v>5125</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004888235521416971</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03342338394870657</v>
+        <v>0.02467753227877691</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6876</v>
+        <v>7153</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004656242318674102</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01673102367476749</v>
+        <v>0.01740428192098652</v>
       </c>
     </row>
     <row r="22">
@@ -2006,19 +2006,19 @@
         <v>33874</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23778</v>
+        <v>24505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44105</v>
+        <v>46187</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1666125301226166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1169572315830729</v>
+        <v>0.1205328992055118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2169393015254217</v>
+        <v>0.2271796090030959</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2027,19 +2027,19 @@
         <v>41026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30173</v>
+        <v>30292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53273</v>
+        <v>52898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1975540970752513</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1452950794044631</v>
+        <v>0.1458693406116114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2565313807593373</v>
+        <v>0.2547216028485855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -2048,19 +2048,19 @@
         <v>74899</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58806</v>
+        <v>60382</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90669</v>
+        <v>90424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.182247439720131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1430880839149555</v>
+        <v>0.1469223318422742</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2206197710555966</v>
+        <v>0.2200230726085695</v>
       </c>
     </row>
     <row r="23">
@@ -2152,19 +2152,19 @@
         <v>212272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>196523</v>
+        <v>198320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>224884</v>
+        <v>225290</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7838379820756659</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7256850108964826</v>
+        <v>0.7323180806590791</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8304108713919577</v>
+        <v>0.8319072280349681</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>186</v>
@@ -2173,19 +2173,19 @@
         <v>189808</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174769</v>
+        <v>174089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>205953</v>
+        <v>203582</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6847269941796745</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6304729522783363</v>
+        <v>0.6280197138644049</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7429669516759974</v>
+        <v>0.7344161964218773</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>394</v>
@@ -2194,19 +2194,19 @@
         <v>402080</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>381351</v>
+        <v>380153</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>422844</v>
+        <v>421006</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7337044355866406</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.695877694007949</v>
+        <v>0.6936923951576254</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7715927824319727</v>
+        <v>0.7682400760841861</v>
       </c>
     </row>
     <row r="25">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5205</v>
+        <v>5277</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003799697516686531</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01921902900440062</v>
+        <v>0.01948604509300832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5186</v>
+        <v>4634</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001877687493973974</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009462694984377814</v>
+        <v>0.008456235184654673</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>57510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45285</v>
+        <v>44868</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73201</v>
+        <v>71827</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2123623204076476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1672196009491665</v>
+        <v>0.1656802990017705</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2703045319654443</v>
+        <v>0.2652282583411101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -2307,19 +2307,19 @@
         <v>87395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>71250</v>
+        <v>73621</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102434</v>
+        <v>103114</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3152730058203255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2570330483240025</v>
+        <v>0.2655838035781229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3695270477216634</v>
+        <v>0.3719802861355952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>140</v>
@@ -2328,19 +2328,19 @@
         <v>144905</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>124118</v>
+        <v>125704</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165142</v>
+        <v>166260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2644178769193855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2264862474807272</v>
+        <v>0.2293814235734331</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3013466641636513</v>
+        <v>0.3033867693139351</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>503931</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>482665</v>
+        <v>481921</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>522133</v>
+        <v>522342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8205447344484864</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.785917212687938</v>
+        <v>0.7847064850045972</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.850182242256859</v>
+        <v>0.850522719078317</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>457</v>
@@ -2453,19 +2453,19 @@
         <v>469513</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>448708</v>
+        <v>445185</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>492220</v>
+        <v>491090</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.735662040737298</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7030621004669454</v>
+        <v>0.6975429151865511</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7712400279520741</v>
+        <v>0.7694687490140724</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>947</v>
@@ -2474,19 +2474,19 @@
         <v>973444</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>944354</v>
+        <v>943763</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1004294</v>
+        <v>1002293</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7772874455079962</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7540586849864721</v>
+        <v>0.7535871768169533</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8019202492305637</v>
+        <v>0.8003226397117604</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>2697</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7195</v>
+        <v>7341</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004391500699601332</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001366366535159854</v>
+        <v>0.001371659359169291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0117147485653552</v>
+        <v>0.01195362690918323</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2524,19 +2524,19 @@
         <v>5865</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2705</v>
+        <v>2148</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11641</v>
+        <v>12637</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009190075494052782</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004238350643737143</v>
+        <v>0.003364953339648888</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01824012230959562</v>
+        <v>0.01980094231110735</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2545,19 +2545,19 @@
         <v>8562</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3733</v>
+        <v>4489</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15421</v>
+        <v>15852</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006836914803592939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002980715154902855</v>
+        <v>0.003584391604463473</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01231385249776258</v>
+        <v>0.01265770211513562</v>
       </c>
     </row>
     <row r="30">
@@ -2574,19 +2574,19 @@
         <v>107514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>89115</v>
+        <v>89431</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>128431</v>
+        <v>129073</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1750637648519123</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1451040812199619</v>
+        <v>0.1456190705336897</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2091228586085469</v>
+        <v>0.2101677784422551</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>158</v>
@@ -2595,19 +2595,19 @@
         <v>162840</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140925</v>
+        <v>141112</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>184022</v>
+        <v>186655</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2551478837686492</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2208094591676209</v>
+        <v>0.2211023265899948</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2883372862817038</v>
+        <v>0.2924621788099468</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>262</v>
@@ -2616,19 +2616,19 @@
         <v>270354</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>240909</v>
+        <v>242755</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>299359</v>
+        <v>300735</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2158756396884109</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1923639598306332</v>
+        <v>0.1938381336132675</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2390355183657593</v>
+        <v>0.2401344145806612</v>
       </c>
     </row>
     <row r="31">
@@ -2720,19 +2720,19 @@
         <v>644978</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>626392</v>
+        <v>625574</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>663338</v>
+        <v>661501</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8671448677602924</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8421563740408955</v>
+        <v>0.8410570506407538</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8918295729111841</v>
+        <v>0.889359115901994</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>602</v>
@@ -2741,19 +2741,19 @@
         <v>631478</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>607981</v>
+        <v>608249</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>654262</v>
+        <v>650937</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8059589358060901</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7759703298925452</v>
+        <v>0.7763126340636628</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8350382390690231</v>
+        <v>0.8307950092889128</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1241</v>
@@ -2762,19 +2762,19 @@
         <v>1276456</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1245355</v>
+        <v>1245494</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1304073</v>
+        <v>1305851</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8357563644626426</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8153932263521716</v>
+        <v>0.8154841254337832</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.853838444974926</v>
+        <v>0.8550031697912757</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>3864</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1110</v>
+        <v>1054</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>9180</v>
+        <v>9512</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005194799091184883</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.001491969277560206</v>
+        <v>0.001417683889276737</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01234274239336619</v>
+        <v>0.0127886790477003</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -2812,19 +2812,19 @@
         <v>14143</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7563</v>
+        <v>8337</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>22401</v>
+        <v>23790</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01805100819025033</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.009652884526487679</v>
+        <v>0.01064074513377576</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02859034739676339</v>
+        <v>0.03036369641216267</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>17</v>
@@ -2833,19 +2833,19 @@
         <v>18007</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10194</v>
+        <v>10305</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>28296</v>
+        <v>26807</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01179005961615881</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006674268852989801</v>
+        <v>0.006747493147918768</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01852662820271421</v>
+        <v>0.01755178558359919</v>
       </c>
     </row>
     <row r="34">
@@ -2862,19 +2862,19 @@
         <v>94953</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77732</v>
+        <v>78913</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>114173</v>
+        <v>114940</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1276603331485227</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1045071618652094</v>
+        <v>0.1060951668272284</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1535000992475415</v>
+        <v>0.1545316771446455</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>130</v>
@@ -2883,19 +2883,19 @@
         <v>137890</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>116541</v>
+        <v>118361</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>160582</v>
+        <v>160697</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1759900560036596</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1487424088243544</v>
+        <v>0.1510654583091839</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2049512551082623</v>
+        <v>0.2050983162550346</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>223</v>
@@ -2904,19 +2904,19 @@
         <v>232843</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>207505</v>
+        <v>203538</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>265228</v>
+        <v>262917</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1524535759211986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1358635708988236</v>
+        <v>0.1332663069999257</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1736576331540663</v>
+        <v>0.1721443056346574</v>
       </c>
     </row>
     <row r="35">
@@ -3008,19 +3008,19 @@
         <v>2715313</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2493</v>
@@ -3029,19 +3029,19 @@
         <v>2554248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5157</v>
@@ -3050,19 +3050,19 @@
         <v>5269560</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="37">
@@ -3079,19 +3079,19 @@
         <v>19609</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12347</v>
+        <v>11959</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30191</v>
+        <v>30255</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005986424383097811</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003769199477577419</v>
+        <v>0.003650850036686936</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.009216670890448026</v>
+        <v>0.009236301165427292</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -3100,19 +3100,19 @@
         <v>35452</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25436</v>
+        <v>24304</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>50265</v>
+        <v>47459</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01049424030612753</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.007529375387455925</v>
+        <v>0.007194315539667333</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01487886508034444</v>
+        <v>0.01404822865264461</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -3121,19 +3121,19 @@
         <v>55062</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41149</v>
+        <v>42109</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71911</v>
+        <v>72503</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.008275085875403508</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006184107365256673</v>
+        <v>0.006328429245140496</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01080731373733109</v>
+        <v>0.01089627156965744</v>
       </c>
     </row>
     <row r="38">
@@ -3150,19 +3150,19 @@
         <v>540737</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>499109</v>
+        <v>495496</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>583781</v>
+        <v>586672</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1650772996660492</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1523689420137543</v>
+        <v>0.1512659867321313</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1782180121618932</v>
+        <v>0.1791005127716076</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>769</v>
@@ -3171,19 +3171,19 @@
         <v>788556</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>736954</v>
+        <v>741191</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>837025</v>
+        <v>837995</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2334211047890741</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2181462345375177</v>
+        <v>0.2194003834665705</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2477682022718345</v>
+        <v>0.2480555508236792</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1299</v>
@@ -3192,19 +3192,19 @@
         <v>1329293</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1263304</v>
+        <v>1263011</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1392824</v>
+        <v>1392358</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1997761067365882</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1898587547619466</v>
+        <v>0.1898146518732342</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2093240099733729</v>
+        <v>0.2092539484300871</v>
       </c>
     </row>
     <row r="39">
@@ -3540,19 +3540,19 @@
         <v>193001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173457</v>
+        <v>175161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>207379</v>
+        <v>211142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6564406587835816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5899668321644437</v>
+        <v>0.595764617954982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.70534374649735</v>
+        <v>0.7181416900285669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -3561,19 +3561,19 @@
         <v>175303</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155873</v>
+        <v>158325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>191642</v>
+        <v>192777</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6128043009259033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5448813209086895</v>
+        <v>0.553454159827833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.669920370756622</v>
+        <v>0.6738879778205432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -3582,19 +3582,19 @@
         <v>368304</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>342908</v>
+        <v>344779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390966</v>
+        <v>391066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6349212809308891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5911405267592551</v>
+        <v>0.5943660845897428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6739880668643343</v>
+        <v>0.6741606407287256</v>
       </c>
     </row>
     <row r="5">
@@ -3611,19 +3611,19 @@
         <v>6421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2705</v>
+        <v>2738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13138</v>
+        <v>12968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02183987972161725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009200568635671452</v>
+        <v>0.009312330043459582</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04468432334469832</v>
+        <v>0.04410633601243253</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -3632,19 +3632,19 @@
         <v>6328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3091</v>
+        <v>2192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13991</v>
+        <v>14137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02211902037553561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01080598741769747</v>
+        <v>0.007663073690031726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04890676630013603</v>
+        <v>0.04941943699050377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -3653,19 +3653,19 @@
         <v>12749</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6821</v>
+        <v>6999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21528</v>
+        <v>20736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02197753862581152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01175819109608249</v>
+        <v>0.01206501260729941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03711276592659496</v>
+        <v>0.03574640900677537</v>
       </c>
     </row>
     <row r="6">
@@ -3682,19 +3682,19 @@
         <v>94589</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80705</v>
+        <v>77120</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113773</v>
+        <v>110810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3217194614948012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.274495131760161</v>
+        <v>0.2623016018819013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3869694629429977</v>
+        <v>0.3768908658369167</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -3703,19 +3703,19 @@
         <v>104436</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88272</v>
+        <v>87087</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123430</v>
+        <v>122055</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3650766786985611</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3085704617008174</v>
+        <v>0.3044284440004425</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4314714061784256</v>
+        <v>0.4266665664109903</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>183</v>
@@ -3724,19 +3724,19 @@
         <v>199025</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>174199</v>
+        <v>175800</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>222412</v>
+        <v>222308</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3431011804432995</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3003027823265978</v>
+        <v>0.3030623982991421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3834182355935625</v>
+        <v>0.3832383214131448</v>
       </c>
     </row>
     <row r="7">
@@ -3828,19 +3828,19 @@
         <v>374221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353006</v>
+        <v>351503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396518</v>
+        <v>393247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7402585290021896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6982937095630767</v>
+        <v>0.6953202989522386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7843662702018181</v>
+        <v>0.7778952980898722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -3849,19 +3849,19 @@
         <v>324564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302596</v>
+        <v>298741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>349854</v>
+        <v>348082</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6196743937160075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5777320495936945</v>
+        <v>0.570372076588533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.667959297989924</v>
+        <v>0.6645760201769096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -3870,19 +3870,19 @@
         <v>698784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666266</v>
+        <v>666211</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729763</v>
+        <v>728004</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6788981627398211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6473054706649518</v>
+        <v>0.6472516527451566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.708995263328163</v>
+        <v>0.7072860457224864</v>
       </c>
     </row>
     <row r="9">
@@ -3899,19 +3899,19 @@
         <v>4079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9411</v>
+        <v>9892</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008068358574785179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00205248562867792</v>
+        <v>0.002064696550630515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01861692090446869</v>
+        <v>0.01956747684321851</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3920,19 +3920,19 @@
         <v>7476</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3217</v>
+        <v>3170</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14684</v>
+        <v>14387</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01427285510572507</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006142143675463808</v>
+        <v>0.006052540829707388</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02803559325308025</v>
+        <v>0.02746806496777306</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -3941,19 +3941,19 @@
         <v>11554</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5331</v>
+        <v>6184</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18856</v>
+        <v>19543</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0112255747268812</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005179644975151826</v>
+        <v>0.006008298382650047</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01831939556717792</v>
+        <v>0.01898698350910639</v>
       </c>
     </row>
     <row r="10">
@@ -3970,19 +3970,19 @@
         <v>127228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106123</v>
+        <v>108450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150081</v>
+        <v>149047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2516731124230253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2099253784404444</v>
+        <v>0.2145295691492298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2968803052421147</v>
+        <v>0.2948353227818557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -3991,19 +3991,19 @@
         <v>191726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166697</v>
+        <v>168982</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212831</v>
+        <v>217302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3660527511782675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3182660679051222</v>
+        <v>0.3226289404752651</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4063489698876641</v>
+        <v>0.4148836520319046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -4012,19 +4012,19 @@
         <v>318953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288187</v>
+        <v>288790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351267</v>
+        <v>351147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3098762625332978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2799854866679756</v>
+        <v>0.2805712312381958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3412709338180021</v>
+        <v>0.3411541190144841</v>
       </c>
     </row>
     <row r="11">
@@ -4116,19 +4116,19 @@
         <v>247524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>229970</v>
+        <v>231445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>262000</v>
+        <v>262445</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7638549146172579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7096824599571965</v>
+        <v>0.7142363947020591</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8085266993863978</v>
+        <v>0.809900459957366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>228</v>
@@ -4137,19 +4137,19 @@
         <v>244762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>226279</v>
+        <v>226527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>261836</v>
+        <v>259844</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7177356732958056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.663535614055168</v>
+        <v>0.6642641165529436</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.767802993663331</v>
+        <v>0.7619625210202964</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>471</v>
@@ -4158,19 +4158,19 @@
         <v>492286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>470017</v>
+        <v>467234</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>514269</v>
+        <v>514260</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7402067596365538</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7067230634942552</v>
+        <v>0.7025374124129328</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.773260453151424</v>
+        <v>0.7732458404491871</v>
       </c>
     </row>
     <row r="13">
@@ -4187,19 +4187,19 @@
         <v>4357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11005</v>
+        <v>10924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01344484434485438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003252043491468225</v>
+        <v>0.003228182501171463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03396115281091322</v>
+        <v>0.03371191204194188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4208,19 +4208,19 @@
         <v>4366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10736</v>
+        <v>10939</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01280197980035501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003234746496985681</v>
+        <v>0.003241116286771543</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03148109554586324</v>
+        <v>0.03207683707536017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4229,19 +4229,19 @@
         <v>8722</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4157</v>
+        <v>3965</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17520</v>
+        <v>17521</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01311520838501804</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006250040446390478</v>
+        <v>0.005961201811683586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02634343637586848</v>
+        <v>0.02634516009760477</v>
       </c>
     </row>
     <row r="14">
@@ -4258,19 +4258,19 @@
         <v>72165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57959</v>
+        <v>58780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88762</v>
+        <v>87615</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2227002410378877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1788593789764663</v>
+        <v>0.1813945978557836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.273916837586721</v>
+        <v>0.2703779889408862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -4279,19 +4279,19 @@
         <v>91892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76445</v>
+        <v>77085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110684</v>
+        <v>109560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2694623469038394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2241666751604749</v>
+        <v>0.2260424723121754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3245677406918195</v>
+        <v>0.3212714718525096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>157</v>
@@ -4300,19 +4300,19 @@
         <v>164057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142426</v>
+        <v>140657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185898</v>
+        <v>188557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2466780319784281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2141526825161709</v>
+        <v>0.2114938115683939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2795180927991327</v>
+        <v>0.2835161492231291</v>
       </c>
     </row>
     <row r="15">
@@ -4404,19 +4404,19 @@
         <v>293420</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>275105</v>
+        <v>272719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>308897</v>
+        <v>308493</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7845839598656174</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7356098589165961</v>
+        <v>0.7292295314986125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8259665264228568</v>
+        <v>0.8248880697224515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>270</v>
@@ -4425,19 +4425,19 @@
         <v>283325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>264723</v>
+        <v>265945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>299925</v>
+        <v>303309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7302351391341613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.682289499688387</v>
+        <v>0.6854405340017793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7730191916784394</v>
+        <v>0.7817390766811632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>541</v>
@@ -4446,19 +4446,19 @@
         <v>576746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>552920</v>
+        <v>551245</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>601621</v>
+        <v>599791</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7569099099311895</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7256411502959557</v>
+        <v>0.7234432841239532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7895558506934918</v>
+        <v>0.7871536384077789</v>
       </c>
     </row>
     <row r="17">
@@ -4475,19 +4475,19 @@
         <v>4936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1823</v>
+        <v>1913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10305</v>
+        <v>11308</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01319956572345057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004875826665680746</v>
+        <v>0.00511493043375433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02755377307211532</v>
+        <v>0.03023704078825116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4496,19 +4496,19 @@
         <v>4032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1037</v>
+        <v>965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10098</v>
+        <v>10131</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01039240036843068</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002673002811703672</v>
+        <v>0.002487679842164186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0260256553736077</v>
+        <v>0.02611142541711068</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -4517,19 +4517,19 @@
         <v>8969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4609</v>
+        <v>3898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18443</v>
+        <v>15875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01177017621391787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006048302530255026</v>
+        <v>0.005115340846134356</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02420469027378687</v>
+        <v>0.0208340672775151</v>
       </c>
     </row>
     <row r="18">
@@ -4546,19 +4546,19 @@
         <v>75625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59947</v>
+        <v>60444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94069</v>
+        <v>95073</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2022164744109321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1602946643202827</v>
+        <v>0.1616215765267441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2515325508200239</v>
+        <v>0.2542184569117521</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -4567,19 +4567,19 @@
         <v>100634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84704</v>
+        <v>81574</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119284</v>
+        <v>117491</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.259372460497408</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.218312599982237</v>
+        <v>0.2102471442570513</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3074392731173856</v>
+        <v>0.3028172822731763</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>164</v>
@@ -4588,19 +4588,19 @@
         <v>176260</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>151547</v>
+        <v>153824</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201160</v>
+        <v>201152</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2313199138548927</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1988880110261264</v>
+        <v>0.2018760216179352</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2639991177605398</v>
+        <v>0.2639879811314019</v>
       </c>
     </row>
     <row r="19">
@@ -4692,19 +4692,19 @@
         <v>175751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163531</v>
+        <v>163894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>185765</v>
+        <v>185896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8266051404609877</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7691320931364378</v>
+        <v>0.7708398257348357</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8737032375128195</v>
+        <v>0.8743199499205708</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -4713,19 +4713,19 @@
         <v>140677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126088</v>
+        <v>125272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155393</v>
+        <v>154731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6406309163280908</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5741969801992094</v>
+        <v>0.5704805888262208</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7076474487483759</v>
+        <v>0.7046315590537313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>296</v>
@@ -4734,19 +4734,19 @@
         <v>316428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>295657</v>
+        <v>297549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>334484</v>
+        <v>334325</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7321178388730878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6840606943514335</v>
+        <v>0.6884382921510863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7738941326409083</v>
+        <v>0.7735252790887993</v>
       </c>
     </row>
     <row r="21">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5181</v>
+        <v>5277</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004865914962822311</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02436967863581199</v>
+        <v>0.02482101451436942</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -4784,19 +4784,19 @@
         <v>4762</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11265</v>
+        <v>10563</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02168529841217651</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00852955781452429</v>
+        <v>0.008518870014496449</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05129893749961604</v>
+        <v>0.0481016049930365</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -4805,19 +4805,19 @@
         <v>5796</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1976</v>
+        <v>2070</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11706</v>
+        <v>12618</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01341128281641266</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004571682491452349</v>
+        <v>0.004789124765801895</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02708363689205785</v>
+        <v>0.0291931117160367</v>
       </c>
     </row>
     <row r="22">
@@ -4834,19 +4834,19 @@
         <v>35832</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26029</v>
+        <v>25899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48632</v>
+        <v>47725</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.16852894457619</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.122421497290782</v>
+        <v>0.1218077382956307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2287304528903093</v>
+        <v>0.2244647526063484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4855,19 +4855,19 @@
         <v>74152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60285</v>
+        <v>60884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88433</v>
+        <v>89896</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3376837852597327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2745328347424544</v>
+        <v>0.2772592319462505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4027169700988439</v>
+        <v>0.4093798423419887</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4876,19 +4876,19 @@
         <v>109985</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92378</v>
+        <v>92448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129573</v>
+        <v>128916</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2544708783104996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2137345530894816</v>
+        <v>0.2138972129664624</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2997917464124438</v>
+        <v>0.2982732180195789</v>
       </c>
     </row>
     <row r="23">
@@ -4980,19 +4980,19 @@
         <v>209702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195644</v>
+        <v>195406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>223578</v>
+        <v>222673</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.765387278107919</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7140801349893725</v>
+        <v>0.71321055708862</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8160364253496047</v>
+        <v>0.8127320785580405</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>178</v>
@@ -5001,19 +5001,19 @@
         <v>183883</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>167645</v>
+        <v>166975</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>199507</v>
+        <v>197914</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6566517011744529</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5986663595914283</v>
+        <v>0.5962720747356487</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7124469135306088</v>
+        <v>0.7067574828829337</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>378</v>
@@ -5022,19 +5022,19 @@
         <v>393584</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>371912</v>
+        <v>370622</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>414459</v>
+        <v>414382</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7104257753873807</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6713075723484674</v>
+        <v>0.6689788758607093</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7481049495575092</v>
+        <v>0.7479657032411636</v>
       </c>
     </row>
     <row r="25">
@@ -5051,19 +5051,19 @@
         <v>3186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8430</v>
+        <v>8554</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01162741376844668</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003834779934837078</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03076958407046218</v>
+        <v>0.03122044592968551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -5072,19 +5072,19 @@
         <v>4257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10728</v>
+        <v>9860</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01520243024970739</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003864706632432137</v>
+        <v>0.003903820736276992</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03831080075239075</v>
+        <v>0.03520938596275468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -5093,19 +5093,19 @@
         <v>7443</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3231</v>
+        <v>3175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16042</v>
+        <v>14866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01343444219099332</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005832694389530301</v>
+        <v>0.005730878861762035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02895603514105449</v>
+        <v>0.02683392450885613</v>
       </c>
     </row>
     <row r="26">
@@ -5122,19 +5122,19 @@
         <v>61094</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46903</v>
+        <v>48590</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>74416</v>
+        <v>76093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2229853081236343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.17119233447138</v>
+        <v>0.1773464994473438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2716103424685194</v>
+        <v>0.2777294786325522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -5143,19 +5143,19 @@
         <v>91891</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76208</v>
+        <v>77537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107713</v>
+        <v>108346</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3281458685758396</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2721398470694008</v>
+        <v>0.2768865667127849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3846467291631794</v>
+        <v>0.3869073082031808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -5164,19 +5164,19 @@
         <v>152985</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>132131</v>
+        <v>132390</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>174724</v>
+        <v>176478</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.276139782421626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2384987820221227</v>
+        <v>0.2389651178960218</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3153789429161541</v>
+        <v>0.3185458523299282</v>
       </c>
     </row>
     <row r="27">
@@ -5268,19 +5268,19 @@
         <v>516101</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>494523</v>
+        <v>492503</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>536925</v>
+        <v>537120</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7786822071570573</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7461260673518935</v>
+        <v>0.7430781926926938</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8101001456410188</v>
+        <v>0.8103951968038038</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>462</v>
@@ -5289,19 +5289,19 @@
         <v>506922</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>480676</v>
+        <v>482309</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>529859</v>
+        <v>530927</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7305892391860833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6927641304893299</v>
+        <v>0.6951163274790277</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7636466403777161</v>
+        <v>0.7651861200744918</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>943</v>
@@ -5310,19 +5310,19 @@
         <v>1023023</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>990025</v>
+        <v>992119</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1055927</v>
+        <v>1055449</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7540850967555272</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7297622269478197</v>
+        <v>0.731305442168477</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7783396527558167</v>
+        <v>0.7779870607232759</v>
       </c>
     </row>
     <row r="29">
@@ -5339,19 +5339,19 @@
         <v>7938</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3800</v>
+        <v>3851</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14691</v>
+        <v>15411</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01197628459809466</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005733768221324328</v>
+        <v>0.005809980719645233</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02216595813634175</v>
+        <v>0.02325127262088348</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -5360,19 +5360,19 @@
         <v>13066</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6620</v>
+        <v>6740</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22760</v>
+        <v>24242</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01883083472992371</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009541174733515755</v>
+        <v>0.00971433676554186</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03280267863334418</v>
+        <v>0.03493816323287204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -5381,19 +5381,19 @@
         <v>21004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12645</v>
+        <v>12437</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33027</v>
+        <v>32070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01548203883740841</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009320738165813499</v>
+        <v>0.009167789127674171</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02434474631018385</v>
+        <v>0.02363932765016652</v>
       </c>
     </row>
     <row r="30">
@@ -5410,19 +5410,19 @@
         <v>138749</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>118101</v>
+        <v>118207</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>160636</v>
+        <v>161200</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.209341508244848</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1781889207927051</v>
+        <v>0.1783481086772944</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2423643058761961</v>
+        <v>0.2432153653463317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>163</v>
@@ -5431,19 +5431,19 @@
         <v>173866</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>151953</v>
+        <v>149731</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>198931</v>
+        <v>197691</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2505799260839929</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.21899900158985</v>
+        <v>0.2157959818298623</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2867049840604944</v>
+        <v>0.2849176509606293</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>292</v>
@@ -5452,19 +5452,19 @@
         <v>312615</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>281137</v>
+        <v>280319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>344844</v>
+        <v>342174</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2304328644070645</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.207229999658765</v>
+        <v>0.2066275291413747</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.25418940953086</v>
+        <v>0.2522216034459662</v>
       </c>
     </row>
     <row r="31">
@@ -5556,19 +5556,19 @@
         <v>707820</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>688962</v>
+        <v>687452</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>724041</v>
+        <v>723859</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9107963737531939</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8865310088125379</v>
+        <v>0.884587448198256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9316686265582048</v>
+        <v>0.9314353060817787</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>662</v>
@@ -5577,19 +5577,19 @@
         <v>716295</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>696196</v>
+        <v>693939</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>735171</v>
+        <v>735003</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8704689255387976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8460435909951505</v>
+        <v>0.8433010267667227</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8934081097325268</v>
+        <v>0.8932041017249454</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1317</v>
@@ -5598,19 +5598,19 @@
         <v>1424115</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1394925</v>
+        <v>1397418</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1450028</v>
+        <v>1451635</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8900562294645363</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8718130422514838</v>
+        <v>0.8733707496600115</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9062513337245275</v>
+        <v>0.9072558426633014</v>
       </c>
     </row>
     <row r="33">
@@ -5627,19 +5627,19 @@
         <v>3113</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8641</v>
+        <v>9108</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.004006082471325053</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.001203079582301982</v>
+        <v>0.001193078113641482</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01111935981336242</v>
+        <v>0.01171933832587215</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -5648,19 +5648,19 @@
         <v>9004</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4561</v>
+        <v>4394</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17046</v>
+        <v>17187</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01094217779134522</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.005542265290935215</v>
+        <v>0.005339992864210293</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02071480875066601</v>
+        <v>0.02088654430335192</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>11</v>
@@ -5669,19 +5669,19 @@
         <v>12117</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5821</v>
+        <v>6468</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>20736</v>
+        <v>21709</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.00757327117546297</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.003638159990663054</v>
+        <v>0.004042595521678837</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01295973760019319</v>
+        <v>0.01356765272175982</v>
       </c>
     </row>
     <row r="34">
@@ -5698,19 +5698,19 @@
         <v>66211</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>50808</v>
+        <v>51140</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>85139</v>
+        <v>87310</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08519754377548101</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06537752116213962</v>
+        <v>0.06580484410254682</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1095540914419747</v>
+        <v>0.1123469393381587</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>86</v>
@@ -5719,19 +5719,19 @@
         <v>97585</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>78770</v>
+        <v>79105</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>116583</v>
+        <v>118429</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1185888966698572</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09572439344570736</v>
+        <v>0.09613172916831721</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1416764098319014</v>
+        <v>0.1439193044005823</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>143</v>
@@ -5740,19 +5740,19 @@
         <v>163796</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>138892</v>
+        <v>138329</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>191098</v>
+        <v>189244</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1023704993600007</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08680587985458833</v>
+        <v>0.08645391636570428</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1194343339297345</v>
+        <v>0.11827555499094</v>
       </c>
     </row>
     <row r="35">
@@ -5844,19 +5844,19 @@
         <v>2717540</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2387</v>
@@ -5865,19 +5865,19 @@
         <v>2575731</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4930</v>
@@ -5886,19 +5886,19 @@
         <v>5293271</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="37">
@@ -5915,19 +5915,19 @@
         <v>35064</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23787</v>
+        <v>25021</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46418</v>
+        <v>48915</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01024048064310536</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006947008204390366</v>
+        <v>0.007307401974005845</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01355612950779794</v>
+        <v>0.01428537708207753</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>49</v>
@@ -5936,19 +5936,19 @@
         <v>53290</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>38823</v>
+        <v>40253</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>69473</v>
+        <v>69218</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01498931680829875</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01091996016910867</v>
+        <v>0.01132232308850719</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01954132591285717</v>
+        <v>0.019469436391528</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>84</v>
@@ -5957,19 +5957,19 @@
         <v>88354</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>71804</v>
+        <v>70476</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>108757</v>
+        <v>108731</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01265950190658344</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01028808195757898</v>
+        <v>0.01009786428738594</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0155827728985194</v>
+        <v>0.01557912841514767</v>
       </c>
     </row>
     <row r="38">
@@ -5986,19 +5986,19 @@
         <v>671493</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>624568</v>
+        <v>621644</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>723387</v>
+        <v>719378</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.196108024676647</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1824035917719971</v>
+        <v>0.1815498229117096</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2112634758072792</v>
+        <v>0.2100926551445286</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>859</v>
@@ -6007,19 +6007,19 @@
         <v>926182</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>877845</v>
+        <v>877424</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>981177</v>
+        <v>982026</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2605146156851114</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.246918421039296</v>
+        <v>0.2467999264438869</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2759832911163549</v>
+        <v>0.2762221929238725</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1487</v>
@@ -6028,19 +6028,19 @@
         <v>1597675</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1530733</v>
+        <v>1526101</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1677476</v>
+        <v>1669858</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2289162555226709</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2193246536353399</v>
+        <v>0.2186610124078919</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2403502063990601</v>
+        <v>0.2392585758464933</v>
       </c>
     </row>
     <row r="39">
@@ -6376,19 +6376,19 @@
         <v>210063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>193507</v>
+        <v>191860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225348</v>
+        <v>224696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7150801217500947</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6587226688915523</v>
+        <v>0.6531144906351717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7671139705872152</v>
+        <v>0.7648944265727874</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -6397,19 +6397,19 @@
         <v>182764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165059</v>
+        <v>165790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197465</v>
+        <v>197606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6370675217819497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5753516935281382</v>
+        <v>0.5778996808458692</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6883098951152827</v>
+        <v>0.6888002121158336</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -6418,19 +6418,19 @@
         <v>392827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>370616</v>
+        <v>369005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>415655</v>
+        <v>414511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6765358208585667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6382830758444636</v>
+        <v>0.6355096215840034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.715850352431201</v>
+        <v>0.7138807909556877</v>
       </c>
     </row>
     <row r="5">
@@ -6447,19 +6447,19 @@
         <v>5291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1788</v>
+        <v>1745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11986</v>
+        <v>12240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01801138414813023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006085410921897927</v>
+        <v>0.005940021769568773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04080212526084562</v>
+        <v>0.04166773899832746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7164</v>
+        <v>6842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004220499963835522</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02497267772114327</v>
+        <v>0.02384935585755804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -6489,19 +6489,19 @@
         <v>6502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2584</v>
+        <v>2459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13896</v>
+        <v>14549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01119761317040711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004450927461802754</v>
+        <v>0.004235599452109302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02393148992061784</v>
+        <v>0.02505707976019213</v>
       </c>
     </row>
     <row r="6">
@@ -6518,19 +6518,19 @@
         <v>78407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63175</v>
+        <v>63014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95072</v>
+        <v>96036</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2669084941017751</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2150561133451672</v>
+        <v>0.2145075171908952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3236366931671837</v>
+        <v>0.3269181508215863</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -6539,19 +6539,19 @@
         <v>102909</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88239</v>
+        <v>88407</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120746</v>
+        <v>119760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3587119782542148</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3075788647532731</v>
+        <v>0.3081617220776617</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4208873491011828</v>
+        <v>0.4174524005777286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -6560,19 +6560,19 @@
         <v>181316</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>159022</v>
+        <v>158880</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203337</v>
+        <v>205302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3122665659710262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2738711521773056</v>
+        <v>0.2736273886000464</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3501922692952867</v>
+        <v>0.3535764215854639</v>
       </c>
     </row>
     <row r="7">
@@ -6664,19 +6664,19 @@
         <v>418908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401267</v>
+        <v>400171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433353</v>
+        <v>433864</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8335230985274998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.798421931003939</v>
+        <v>0.7962404923952885</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.862266061327565</v>
+        <v>0.8632829210040691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>382</v>
@@ -6685,19 +6685,19 @@
         <v>413084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393234</v>
+        <v>393789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431704</v>
+        <v>429943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7897092270437424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517607797943794</v>
+        <v>0.7528224989612158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8253058983070835</v>
+        <v>0.8219389664003351</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>781</v>
@@ -6706,19 +6706,19 @@
         <v>831992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806146</v>
+        <v>807007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857814</v>
+        <v>857984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8111781212274386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7859785489584735</v>
+        <v>0.7868177827610695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8363539854306438</v>
+        <v>0.8365194811898001</v>
       </c>
     </row>
     <row r="9">
@@ -6735,19 +6735,19 @@
         <v>3473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10145</v>
+        <v>9694</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006909721986613241</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00203045286617507</v>
+        <v>0.002031772872329174</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0201857596481263</v>
+        <v>0.01928793177731198</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -6756,19 +6756,19 @@
         <v>4621</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1162</v>
+        <v>1262</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11534</v>
+        <v>11680</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.008833493287165189</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002220824126307021</v>
+        <v>0.002413074192897132</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02205093147677279</v>
+        <v>0.02232898022719784</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -6777,19 +6777,19 @@
         <v>8093</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3346</v>
+        <v>3310</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15781</v>
+        <v>15997</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007890841083958435</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003262490752674622</v>
+        <v>0.003227284826182961</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01538664577816698</v>
+        <v>0.0155964929485055</v>
       </c>
     </row>
     <row r="10">
@@ -6806,19 +6806,19 @@
         <v>80194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65168</v>
+        <v>64691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97098</v>
+        <v>98646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.159567179485887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1296690574962608</v>
+        <v>0.1287198551404198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1932018835224264</v>
+        <v>0.1962802593897762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -6827,19 +6827,19 @@
         <v>105379</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87784</v>
+        <v>88246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125102</v>
+        <v>126306</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2014572796690925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1678201628650612</v>
+        <v>0.1687025167458804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2391622360272487</v>
+        <v>0.2414639586537492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -6848,19 +6848,19 @@
         <v>185574</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160131</v>
+        <v>160044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212101</v>
+        <v>210782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.180931037688603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1561247662334377</v>
+        <v>0.1560397908005388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.206794510639157</v>
+        <v>0.2055090943560609</v>
       </c>
     </row>
     <row r="11">
@@ -6952,19 +6952,19 @@
         <v>275849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264279</v>
+        <v>263635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286265</v>
+        <v>286383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8809854271350129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8440333623443004</v>
+        <v>0.8419772692940722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9142505799603559</v>
+        <v>0.9146286399915066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>282</v>
@@ -6973,19 +6973,19 @@
         <v>286525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>272315</v>
+        <v>273324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297324</v>
+        <v>297162</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8583522540139934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8157831004534367</v>
+        <v>0.8188059925405966</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8907035665908321</v>
+        <v>0.8902194009454373</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>573</v>
@@ -6994,19 +6994,19 @@
         <v>562374</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>543726</v>
+        <v>545509</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>577499</v>
+        <v>578480</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8693068376983399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8404816569232501</v>
+        <v>0.8432380193222625</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8926873464566781</v>
+        <v>0.8942034127230906</v>
       </c>
     </row>
     <row r="13">
@@ -7023,19 +7023,19 @@
         <v>8875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4241</v>
+        <v>4223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16337</v>
+        <v>16040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02834545787667191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01354357810658541</v>
+        <v>0.01348821312863808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05217659966016555</v>
+        <v>0.05122607213674669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -7044,19 +7044,19 @@
         <v>7855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3817</v>
+        <v>3622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14909</v>
+        <v>14781</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02353008008890195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01143620985651917</v>
+        <v>0.01085138196258667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04466459111786674</v>
+        <v>0.04427917623584865</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -7065,19 +7065,19 @@
         <v>16730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10356</v>
+        <v>9873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26222</v>
+        <v>25784</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02586075014854462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01600804953620821</v>
+        <v>0.01526161382305305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04053303994389753</v>
+        <v>0.03985588793509405</v>
       </c>
     </row>
     <row r="14">
@@ -7094,19 +7094,19 @@
         <v>28390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19616</v>
+        <v>19845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38956</v>
+        <v>39384</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0906691149883152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06264876302561119</v>
+        <v>0.06337994066325402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1244163221684209</v>
+        <v>0.1257820048692524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -7115,19 +7115,19 @@
         <v>39429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29028</v>
+        <v>29564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52387</v>
+        <v>51573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1181176658971047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08696049475823209</v>
+        <v>0.08856626183540099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1569374663503097</v>
+        <v>0.1544999088286628</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>70</v>
@@ -7136,19 +7136,19 @@
         <v>67818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54093</v>
+        <v>54036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83468</v>
+        <v>82951</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1048324121531155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08361617926870685</v>
+        <v>0.08352828459437824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.129023824105867</v>
+        <v>0.1282236673488903</v>
       </c>
     </row>
     <row r="15">
@@ -7240,19 +7240,19 @@
         <v>269650</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252439</v>
+        <v>250199</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286424</v>
+        <v>284886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7347278192351829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6878346329054041</v>
+        <v>0.6817292239200824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7804348557484634</v>
+        <v>0.7762431066059341</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>246</v>
@@ -7261,19 +7261,19 @@
         <v>261869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242658</v>
+        <v>240281</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>281443</v>
+        <v>281034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.676170648211162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6265641391367651</v>
+        <v>0.6204273410523274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7267111991546392</v>
+        <v>0.7256560455530486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -7282,19 +7282,19 @@
         <v>531519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>506206</v>
+        <v>504034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>559777</v>
+        <v>557047</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7046621430885327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6711039151706774</v>
+        <v>0.6682233580737958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7421251202984448</v>
+        <v>0.7385063209418641</v>
       </c>
     </row>
     <row r="17">
@@ -7311,19 +7311,19 @@
         <v>2731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7423</v>
+        <v>7856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007442286930859495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00205415151513087</v>
+        <v>0.002069037195955322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02022485914231305</v>
+        <v>0.02140644642338686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7332,19 +7332,19 @@
         <v>6866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2386</v>
+        <v>2915</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14320</v>
+        <v>15094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.017728237609824</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006160331737769647</v>
+        <v>0.007526998717135885</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03697591987120372</v>
+        <v>0.03897307659395435</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -7353,19 +7353,19 @@
         <v>9597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4591</v>
+        <v>4898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18203</v>
+        <v>17950</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01272351989628579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006086549041971353</v>
+        <v>0.006493104601393138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02413207900137613</v>
+        <v>0.02379752131775754</v>
       </c>
     </row>
     <row r="18">
@@ -7382,19 +7382,19 @@
         <v>94625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78553</v>
+        <v>79989</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112229</v>
+        <v>114232</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2578298938339575</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2140371715445524</v>
+        <v>0.217950020555063</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3057968806079904</v>
+        <v>0.3112545040246125</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -7403,19 +7403,19 @@
         <v>118548</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98876</v>
+        <v>99639</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>138344</v>
+        <v>138265</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.306101114179014</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2553063355076402</v>
+        <v>0.2572767699766091</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3572177012246243</v>
+        <v>0.3570116669011142</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -7424,19 +7424,19 @@
         <v>213173</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186193</v>
+        <v>188329</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>237375</v>
+        <v>239662</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2826143370151816</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2468456579556994</v>
+        <v>0.2496769307099889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3147006174055512</v>
+        <v>0.3177329012578422</v>
       </c>
     </row>
     <row r="19">
@@ -7528,19 +7528,19 @@
         <v>182609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>171423</v>
+        <v>171465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190685</v>
+        <v>190750</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8738763680442775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.820346105128531</v>
+        <v>0.8205477546610168</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9125278267292911</v>
+        <v>0.912836026898982</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -7549,19 +7549,19 @@
         <v>187185</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176911</v>
+        <v>176149</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197400</v>
+        <v>195793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8597557724583321</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.812566014085525</v>
+        <v>0.8090664008996103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9066746798090815</v>
+        <v>0.8992910865630406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>374</v>
@@ -7570,19 +7570,19 @@
         <v>369795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>355114</v>
+        <v>354207</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>382438</v>
+        <v>382260</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8666712076932901</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8322637020155964</v>
+        <v>0.8301389418173667</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8963023490890959</v>
+        <v>0.8958847806192152</v>
       </c>
     </row>
     <row r="21">
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6364</v>
+        <v>6777</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009245281886023185</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03045522323702331</v>
+        <v>0.03242977300874332</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -7620,19 +7620,19 @@
         <v>5145</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11187</v>
+        <v>12703</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02363084638999918</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008779786155613483</v>
+        <v>0.008815841280498095</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05138405174211246</v>
+        <v>0.05834418060729026</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -7641,19 +7641,19 @@
         <v>7077</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2924</v>
+        <v>3179</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14249</v>
+        <v>13212</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01658564500029482</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006853126170845734</v>
+        <v>0.007451525738257911</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03339485607159644</v>
+        <v>0.03096409398584842</v>
       </c>
     </row>
     <row r="22">
@@ -7670,19 +7670,19 @@
         <v>24423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16448</v>
+        <v>16473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35037</v>
+        <v>35181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1168783500696993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07871080054315627</v>
+        <v>0.07883039608703034</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1676703382794795</v>
+        <v>0.1683589324781964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -7691,19 +7691,19 @@
         <v>25389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16862</v>
+        <v>18189</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35112</v>
+        <v>35397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1166133811516687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07744772863123617</v>
+        <v>0.08354530296794398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1612705078327049</v>
+        <v>0.1625832963930783</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -7712,19 +7712,19 @@
         <v>49812</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37861</v>
+        <v>37023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63686</v>
+        <v>64326</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1167431473064151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08873239620789891</v>
+        <v>0.0867681874250867</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1492569917954037</v>
+        <v>0.150756892957862</v>
       </c>
     </row>
     <row r="23">
@@ -7816,19 +7816,19 @@
         <v>205380</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>191165</v>
+        <v>189924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>217681</v>
+        <v>217067</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7805489083566839</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7265218398864605</v>
+        <v>0.7218086361059134</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8272966416044519</v>
+        <v>0.8249640281516681</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>192</v>
@@ -7837,19 +7837,19 @@
         <v>196741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>180978</v>
+        <v>181945</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>211240</v>
+        <v>211094</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.720358047193515</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6626455128202802</v>
+        <v>0.666185747817328</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7734487118471187</v>
+        <v>0.7729118342177506</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>393</v>
@@ -7858,19 +7858,19 @@
         <v>402121</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>379645</v>
+        <v>381536</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>421575</v>
+        <v>421297</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7498926939807004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7079779535276047</v>
+        <v>0.7115053340383838</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7861717274032718</v>
+        <v>0.7856530331613838</v>
       </c>
     </row>
     <row r="25">
@@ -7887,19 +7887,19 @@
         <v>8620</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3961</v>
+        <v>3854</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17051</v>
+        <v>16773</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03275890883897489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01505512207983275</v>
+        <v>0.01464679750496848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06480198471650044</v>
+        <v>0.06374547040761311</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6834</v>
+        <v>7557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007259182012133135</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02502230222635543</v>
+        <v>0.02767007636553773</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -7929,19 +7929,19 @@
         <v>10602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4638</v>
+        <v>5596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18419</v>
+        <v>19186</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01977147059625673</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008650075928448131</v>
+        <v>0.01043568171087952</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03434778476189838</v>
+        <v>0.0357785608393693</v>
       </c>
     </row>
     <row r="26">
@@ -7958,19 +7958,19 @@
         <v>49123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37514</v>
+        <v>38331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62025</v>
+        <v>62340</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1866921828043412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1425729241208068</v>
+        <v>0.1456786703208162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2357254628088102</v>
+        <v>0.2369240604967793</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>69</v>
@@ -7979,19 +7979,19 @@
         <v>74392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59626</v>
+        <v>59952</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>89942</v>
+        <v>88706</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2723827707943518</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2183167296902492</v>
+        <v>0.2195123555983049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3293194315555133</v>
+        <v>0.3247937286682466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -8000,19 +8000,19 @@
         <v>123515</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105630</v>
+        <v>105374</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145004</v>
+        <v>143988</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2303358354230429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1969834324375102</v>
+        <v>0.1965060634516299</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2704103695744972</v>
+        <v>0.2685156177365605</v>
       </c>
     </row>
     <row r="27">
@@ -8104,19 +8104,19 @@
         <v>581241</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>562636</v>
+        <v>561077</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>598026</v>
+        <v>596890</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8852845907124078</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8569471428088566</v>
+        <v>0.8545732264953411</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9108498054690729</v>
+        <v>0.9091195910665287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>532</v>
@@ -8125,19 +8125,19 @@
         <v>565045</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>543036</v>
+        <v>542059</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>585817</v>
+        <v>584917</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8188790842390182</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7869820990099575</v>
+        <v>0.7855659689240049</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8489815542629873</v>
+        <v>0.8476769142803078</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1047</v>
@@ -8146,19 +8146,19 @@
         <v>1146286</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1118611</v>
+        <v>1119832</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1172490</v>
+        <v>1173889</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8512566900094134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8307047493336801</v>
+        <v>0.8316111318699523</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8707160759178166</v>
+        <v>0.8717549741531161</v>
       </c>
     </row>
     <row r="29">
@@ -8175,19 +8175,19 @@
         <v>7196</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3106</v>
+        <v>2991</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15178</v>
+        <v>13887</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01095981577835052</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004730899176866156</v>
+        <v>0.00455591892097644</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0231167908957051</v>
+        <v>0.02115094151715525</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -8196,19 +8196,19 @@
         <v>22690</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14530</v>
+        <v>14352</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33941</v>
+        <v>35056</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03288234452399526</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02105794274433295</v>
+        <v>0.02079884749033086</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04918866470119179</v>
+        <v>0.05080369886553986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -8217,19 +8217,19 @@
         <v>29885</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19535</v>
+        <v>20251</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41853</v>
+        <v>42531</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02219348706454532</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01450747946630129</v>
+        <v>0.01503875776476464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03108088769729778</v>
+        <v>0.03158463442397916</v>
       </c>
     </row>
     <row r="30">
@@ -8246,19 +8246,19 @@
         <v>68122</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>51882</v>
+        <v>52322</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86725</v>
+        <v>87770</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1037555935092416</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07902072101454016</v>
+        <v>0.07969166646558153</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1320902418720028</v>
+        <v>0.1336814900924262</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -8267,19 +8267,19 @@
         <v>102288</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>82355</v>
+        <v>82790</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>120990</v>
+        <v>122832</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1482385712369866</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1193516513254995</v>
+        <v>0.1199819497762654</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1753421925194269</v>
+        <v>0.1780111142345668</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>152</v>
@@ -8288,19 +8288,19 @@
         <v>170410</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>145889</v>
+        <v>147001</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>195726</v>
+        <v>196328</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1265498229260412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1083403962878394</v>
+        <v>0.1091661928855955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1453501028374827</v>
+        <v>0.1457972051528209</v>
       </c>
     </row>
     <row r="31">
@@ -8392,19 +8392,19 @@
         <v>675396</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>656208</v>
+        <v>656814</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>694119</v>
+        <v>694652</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8674677552359704</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8428235909677324</v>
+        <v>0.8436013617721768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8915157445338836</v>
+        <v>0.8922003157237834</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>627</v>
@@ -8413,19 +8413,19 @@
         <v>683389</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>658369</v>
+        <v>659662</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>704134</v>
+        <v>705037</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8271805021144735</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7968952056663983</v>
+        <v>0.7984612451327072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.852290480167485</v>
+        <v>0.8533833053962065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1278</v>
@@ -8434,19 +8434,19 @@
         <v>1358785</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1326222</v>
+        <v>1327596</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1385639</v>
+        <v>1388418</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8467268303846871</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8264349714005323</v>
+        <v>0.8272913267421521</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8634610053420636</v>
+        <v>0.8651927233467881</v>
       </c>
     </row>
     <row r="33">
@@ -8463,19 +8463,19 @@
         <v>8090</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3664</v>
+        <v>3939</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15669</v>
+        <v>16110</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01039057312909574</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004706176612935584</v>
+        <v>0.005059266181970928</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02012515944839117</v>
+        <v>0.02069190442430281</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -8484,19 +8484,19 @@
         <v>10187</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4402</v>
+        <v>5083</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>19867</v>
+        <v>20314</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01233038616012549</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.005327746394187129</v>
+        <v>0.006152363858159555</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02404734304368032</v>
+        <v>0.02458773276255347</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>16</v>
@@ -8505,19 +8505,19 @@
         <v>18277</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10632</v>
+        <v>10430</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>28917</v>
+        <v>29637</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01138923928736653</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006625049123230304</v>
+        <v>0.006499749901268126</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01801959912980166</v>
+        <v>0.01846800484345188</v>
       </c>
     </row>
     <row r="34">
@@ -8534,19 +8534,19 @@
         <v>95097</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77537</v>
+        <v>77465</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>113797</v>
+        <v>112770</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1221416716349338</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09958716029155548</v>
+        <v>0.09949528856327068</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1461588122022686</v>
+        <v>0.1448406273395681</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>120</v>
@@ -8555,19 +8555,19 @@
         <v>132591</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>111660</v>
+        <v>110239</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>155810</v>
+        <v>154794</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.160489111725401</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1351541639616756</v>
+        <v>0.1334341621070143</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1885941550651517</v>
+        <v>0.1873636529002513</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>211</v>
@@ -8576,19 +8576,19 @@
         <v>227688</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>201046</v>
+        <v>199726</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>258698</v>
+        <v>258063</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1418839303279464</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1252820878314054</v>
+        <v>0.124459384825703</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1612079329563492</v>
+        <v>0.1608116923713745</v>
       </c>
     </row>
     <row r="35">
@@ -8680,19 +8680,19 @@
         <v>2819094</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2625</v>
@@ -8701,19 +8701,19 @@
         <v>2776603</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5316</v>
@@ -8722,19 +8722,19 @@
         <v>5595698</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="37">
@@ -8751,19 +8751,19 @@
         <v>46208</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>33896</v>
+        <v>33970</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>62177</v>
+        <v>60386</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01365601796473839</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01001749320454418</v>
+        <v>0.01003929829323047</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01837544560433826</v>
+        <v>0.01784612492263336</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>53</v>
@@ -8772,19 +8772,19 @@
         <v>60556</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46114</v>
+        <v>46596</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>78006</v>
+        <v>79520</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01711543776173046</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0130335872139232</v>
+        <v>0.01316976069641997</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0220475783360251</v>
+        <v>0.02247545123907244</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -8793,19 +8793,19 @@
         <v>106763</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>87465</v>
+        <v>87956</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>128809</v>
+        <v>131033</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01542431117259748</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01263618124289315</v>
+        <v>0.01270709662095822</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01860922313510311</v>
+        <v>0.01893062890171053</v>
       </c>
     </row>
     <row r="38">
@@ -8822,19 +8822,19 @@
         <v>518382</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>474603</v>
+        <v>474744</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>563374</v>
+        <v>560151</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1532004705627469</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1402621965147369</v>
+        <v>0.1403039123107307</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1664970864091792</v>
+        <v>0.1655446667567533</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>655</v>
@@ -8843,19 +8843,19 @@
         <v>700924</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>651398</v>
+        <v>649577</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>749762</v>
+        <v>746755</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1981083313617435</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1841104503760874</v>
+        <v>0.1835956677093142</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2119117943481831</v>
+        <v>0.2110619624449732</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1140</v>
@@ -8864,19 +8864,19 @@
         <v>1219306</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1157092</v>
+        <v>1161597</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1289152</v>
+        <v>1288494</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1761552635310341</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1671671715471844</v>
+        <v>0.1678180527265754</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1862461389922756</v>
+        <v>0.1861510934267357</v>
       </c>
     </row>
     <row r="39">
@@ -9212,19 +9212,19 @@
         <v>212757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>195165</v>
+        <v>193851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231289</v>
+        <v>229436</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6672725772463085</v>
+        <v>0.6672725772463084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6121008075129341</v>
+        <v>0.6079786385732555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7253977702436991</v>
+        <v>0.7195839007724266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>334</v>
@@ -9233,19 +9233,19 @@
         <v>194299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>179003</v>
+        <v>179191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207696</v>
+        <v>209615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6147524170290032</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5663544718166539</v>
+        <v>0.56695184184948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6571375239771124</v>
+        <v>0.663211092595576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>559</v>
@@ -9254,19 +9254,19 @@
         <v>407056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>382532</v>
+        <v>386437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>428946</v>
+        <v>429177</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6411276713978303</v>
+        <v>0.6411276713978302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6025017569995659</v>
+        <v>0.6086520764288619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6756054443305306</v>
+        <v>0.6759693633733618</v>
       </c>
     </row>
     <row r="5">
@@ -9286,16 +9286,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4758</v>
+        <v>4115</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.004240013372627307</v>
+        <v>0.004240013372627308</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01492336291507753</v>
+        <v>0.01290474992667036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -9304,19 +9304,19 @@
         <v>2604</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5832</v>
+        <v>6482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008239136845419588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003051601718253529</v>
+        <v>0.003002852614587723</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01845318447285443</v>
+        <v>0.02050824717786764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -9325,19 +9325,19 @@
         <v>3956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7882</v>
+        <v>8078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006230805217891751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002606509185118842</v>
+        <v>0.002609925369250983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01241465596989797</v>
+        <v>0.01272349322357179</v>
       </c>
     </row>
     <row r="6">
@@ -9354,19 +9354,19 @@
         <v>104737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86906</v>
+        <v>88324</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122342</v>
+        <v>124290</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3284874093810642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.272566404187381</v>
+        <v>0.2770122385092477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3837051506566799</v>
+        <v>0.3898129681017077</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>199</v>
@@ -9375,19 +9375,19 @@
         <v>119158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105655</v>
+        <v>103957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>134601</v>
+        <v>133467</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3770084461255772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3342860258016443</v>
+        <v>0.328914868270724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4258697509754186</v>
+        <v>0.4222837912759803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>303</v>
@@ -9396,19 +9396,19 @@
         <v>223894</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>202032</v>
+        <v>201838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>248162</v>
+        <v>244552</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.352641523384278</v>
+        <v>0.3526415233842781</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3182084610710171</v>
+        <v>0.3179026526596069</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3908637591044057</v>
+        <v>0.3851776572763721</v>
       </c>
     </row>
     <row r="7">
@@ -9500,19 +9500,19 @@
         <v>449715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430462</v>
+        <v>427496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469524</v>
+        <v>469233</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8474841438143613</v>
+        <v>0.8474841438143612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8112023916240744</v>
+        <v>0.8056118704945118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8848141553698139</v>
+        <v>0.8842649036365494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>568</v>
@@ -9521,19 +9521,19 @@
         <v>437377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419911</v>
+        <v>419584</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>453467</v>
+        <v>453629</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8016125598332866</v>
+        <v>0.8016125598332867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7696000590527841</v>
+        <v>0.7690003749891793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8311014583217876</v>
+        <v>0.831398590584671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -9542,19 +9542,19 @@
         <v>887092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858564</v>
+        <v>855368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>911097</v>
+        <v>910530</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8242292332304879</v>
+        <v>0.824229233230488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7977226472231075</v>
+        <v>0.7947533903230715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8465329610323451</v>
+        <v>0.8460062278241491</v>
       </c>
     </row>
     <row r="9">
@@ -9584,19 +9584,19 @@
         <v>2297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>604</v>
+        <v>558</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7706</v>
+        <v>7288</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.004209656980758929</v>
+        <v>0.00420965698075893</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001107150725284708</v>
+        <v>0.001022968989915201</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01412315160725393</v>
+        <v>0.01335720069107483</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -9605,19 +9605,19 @@
         <v>2297</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7908</v>
+        <v>7088</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002134114154782958</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0005212563983669894</v>
+        <v>0.0005150765665810543</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007347278442565924</v>
+        <v>0.006586149662400387</v>
       </c>
     </row>
     <row r="10">
@@ -9634,19 +9634,19 @@
         <v>80932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61123</v>
+        <v>61414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100185</v>
+        <v>103151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1525158561856387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1151858446301866</v>
+        <v>0.1157350963634505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.188797608375927</v>
+        <v>0.1943881295054882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -9655,19 +9655,19 @@
         <v>105948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90002</v>
+        <v>89775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122997</v>
+        <v>123180</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1941777831859544</v>
+        <v>0.1941777831859545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1649533105127745</v>
+        <v>0.1645362926779895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2254253043863182</v>
+        <v>0.2257613757845333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -9676,19 +9676,19 @@
         <v>186880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163179</v>
+        <v>163604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216035</v>
+        <v>218359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.173636652614729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1516158506353476</v>
+        <v>0.1520105439932226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2007262276015635</v>
+        <v>0.2028854856766658</v>
       </c>
     </row>
     <row r="11">
@@ -9780,19 +9780,19 @@
         <v>241217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>225825</v>
+        <v>225699</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>255700</v>
+        <v>254122</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7633621451057651</v>
+        <v>0.7633621451057652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7146509186439897</v>
+        <v>0.7142535202815646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8091961335256799</v>
+        <v>0.8041998899104725</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>369</v>
@@ -9801,19 +9801,19 @@
         <v>241221</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>225768</v>
+        <v>225068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>257046</v>
+        <v>255537</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6778984740783824</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6344699370775152</v>
+        <v>0.6325029844098342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7223711118965133</v>
+        <v>0.7181286426498508</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>641</v>
@@ -9822,19 +9822,19 @@
         <v>482438</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>460901</v>
+        <v>459820</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>502493</v>
+        <v>503439</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7180960639061552</v>
+        <v>0.7180960639061553</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6860376046561749</v>
+        <v>0.6844289904442173</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7479463409305247</v>
+        <v>0.7493549712449974</v>
       </c>
     </row>
     <row r="13">
@@ -9851,19 +9851,19 @@
         <v>2857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7157</v>
+        <v>7059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009041117376966952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002180841688706482</v>
+        <v>0.002211543648751908</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02264799642629202</v>
+        <v>0.0223394546885184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -9872,19 +9872,19 @@
         <v>4082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1673</v>
+        <v>1489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9947</v>
+        <v>9054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01147294615224183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004701751460287528</v>
+        <v>0.004184985887062301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02795333587329058</v>
+        <v>0.02544377726960964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -9893,19 +9893,19 @@
         <v>6939</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3526</v>
+        <v>3513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13592</v>
+        <v>12403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01032914253996131</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00524773128319344</v>
+        <v>0.005229132598616288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02023171851243237</v>
+        <v>0.01846199424585201</v>
       </c>
     </row>
     <row r="14">
@@ -9922,19 +9922,19 @@
         <v>71919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57117</v>
+        <v>59719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86943</v>
+        <v>86474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2275967375172679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1807532636744137</v>
+        <v>0.1889895647091493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.275143565828489</v>
+        <v>0.2736587744266146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>160</v>
@@ -9943,19 +9943,19 @@
         <v>110533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95316</v>
+        <v>96534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126340</v>
+        <v>126385</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3106285797693757</v>
+        <v>0.3106285797693758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2678630104429512</v>
+        <v>0.2712869970796507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3550514561202326</v>
+        <v>0.3551772592388218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>244</v>
@@ -9964,19 +9964,19 @@
         <v>182452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162704</v>
+        <v>162444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203656</v>
+        <v>203298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2715747935538834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2421806265523274</v>
+        <v>0.2417926203330424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.30313592505468</v>
+        <v>0.3026033224565446</v>
       </c>
     </row>
     <row r="15">
@@ -10068,19 +10068,19 @@
         <v>281070</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>258010</v>
+        <v>259401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303889</v>
+        <v>301662</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7572437739965615</v>
+        <v>0.7572437739965616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6951182006358021</v>
+        <v>0.6988642326453304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8187221682705691</v>
+        <v>0.8127229766922421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>460</v>
@@ -10089,19 +10089,19 @@
         <v>315226</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296986</v>
+        <v>294918</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>334019</v>
+        <v>332047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7470506565381511</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7038236792770073</v>
+        <v>0.698922283212869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7915871948350266</v>
+        <v>0.7869150138878258</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>689</v>
@@ -10110,19 +10110,19 @@
         <v>596296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>565414</v>
+        <v>567564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>622775</v>
+        <v>623240</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7518208687336134</v>
+        <v>0.7518208687336135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7128843215757914</v>
+        <v>0.7155950754254707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7852054493789142</v>
+        <v>0.7857926890828568</v>
       </c>
     </row>
     <row r="17">
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5388</v>
+        <v>4868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003853298466504805</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01451538519321365</v>
+        <v>0.0131149526371217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -10160,19 +10160,19 @@
         <v>3979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1708</v>
+        <v>1751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8150</v>
+        <v>8184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009429605105176436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004047927722760583</v>
+        <v>0.004148989924908328</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01931431967135739</v>
+        <v>0.01939626483171543</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -10181,19 +10181,19 @@
         <v>5409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2626</v>
+        <v>2765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9889</v>
+        <v>9988</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006819984835228397</v>
+        <v>0.006819984835228398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00331102313503144</v>
+        <v>0.003486543004749086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01246850412322824</v>
+        <v>0.01259250945213941</v>
       </c>
     </row>
     <row r="18">
@@ -10210,19 +10210,19 @@
         <v>88675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66653</v>
+        <v>68237</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111768</v>
+        <v>111059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2389029275369335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.179573050031315</v>
+        <v>0.1838394715266992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3011194672841037</v>
+        <v>0.2992085585219865</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>131</v>
@@ -10231,19 +10231,19 @@
         <v>102756</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84662</v>
+        <v>85296</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>120945</v>
+        <v>122031</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2435197383566725</v>
+        <v>0.2435197383566726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2006386607036999</v>
+        <v>0.2021426094806973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2866260949273355</v>
+        <v>0.289200107175549</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -10252,19 +10252,19 @@
         <v>191431</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>164842</v>
+        <v>165236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>221775</v>
+        <v>220130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2413591464311581</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2078362827358052</v>
+        <v>0.208331924135317</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2796174596750123</v>
+        <v>0.2775433497241919</v>
       </c>
     </row>
     <row r="19">
@@ -10356,19 +10356,19 @@
         <v>186866</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176444</v>
+        <v>177337</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193381</v>
+        <v>193073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9085937643365019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8579171293488597</v>
+        <v>0.8622637016305099</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9402719332973122</v>
+        <v>0.9387752317406002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>468</v>
@@ -10377,19 +10377,19 @@
         <v>216211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211302</v>
+        <v>210929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220227</v>
+        <v>219974</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.951570058902786</v>
+        <v>0.9515700589027857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.929964282991238</v>
+        <v>0.9283251700278883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9692443541153428</v>
+        <v>0.9681332058713427</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>724</v>
@@ -10398,19 +10398,19 @@
         <v>403076</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>393540</v>
+        <v>392778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>411358</v>
+        <v>410724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9311516530965654</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9091213166014054</v>
+        <v>0.9073623141480872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9502848776399798</v>
+        <v>0.9488193402172868</v>
       </c>
     </row>
     <row r="21">
@@ -10474,19 +10474,19 @@
         <v>18799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12284</v>
+        <v>12592</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29221</v>
+        <v>28328</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09140623566349804</v>
+        <v>0.09140623566349801</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05972806670268782</v>
+        <v>0.0612247682593999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1420828706511404</v>
+        <v>0.13773629836949</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -10495,19 +10495,19 @@
         <v>11004</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6988</v>
+        <v>7241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15913</v>
+        <v>16286</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04842994109721428</v>
+        <v>0.04842994109721427</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03075564588465674</v>
+        <v>0.03186679412865743</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07003571700876168</v>
+        <v>0.07167482997211187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -10516,19 +10516,19 @@
         <v>29803</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21521</v>
+        <v>22155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39339</v>
+        <v>40101</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06884834690343467</v>
+        <v>0.06884834690343465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04971512236002051</v>
+        <v>0.0511806597827133</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09087868339859462</v>
+        <v>0.09263768585191305</v>
       </c>
     </row>
     <row r="23">
@@ -10620,19 +10620,19 @@
         <v>202429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>190130</v>
+        <v>188927</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>214559</v>
+        <v>214322</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7477774973625226</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7023458420465488</v>
+        <v>0.6979018047325132</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.79258571079045</v>
+        <v>0.7917107395191851</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>318</v>
@@ -10641,19 +10641,19 @@
         <v>186525</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174355</v>
+        <v>175219</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>197092</v>
+        <v>197672</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7072021016879099</v>
+        <v>0.7072021016879096</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6610610846730396</v>
+        <v>0.6643370187694323</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.747267869067575</v>
+        <v>0.749465666181557</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>588</v>
@@ -10662,19 +10662,19 @@
         <v>388953</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>372112</v>
+        <v>372094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>406777</v>
+        <v>406138</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7277538714700609</v>
+        <v>0.727753871470061</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6962425610552571</v>
+        <v>0.6962099501478739</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7611027516107705</v>
+        <v>0.7599079194792088</v>
       </c>
     </row>
     <row r="25">
@@ -10691,19 +10691,19 @@
         <v>1665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4845</v>
+        <v>5109</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006149972778810667</v>
+        <v>0.006149972778810668</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001268314074699083</v>
+        <v>0.001271840262066061</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01789706900202203</v>
+        <v>0.01887246743942364</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2249</v>
+        <v>2214</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001410719850449818</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008525552799979571</v>
+        <v>0.008393603345351689</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -10733,19 +10733,19 @@
         <v>2037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>692</v>
+        <v>375</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5318</v>
+        <v>4946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003811190221808371</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001293982148337584</v>
+        <v>0.0007020762607935872</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009949838681501622</v>
+        <v>0.009254997852978142</v>
       </c>
     </row>
     <row r="26">
@@ -10762,19 +10762,19 @@
         <v>66614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54694</v>
+        <v>55358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>79137</v>
+        <v>80141</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2460725298586668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2020399463723542</v>
+        <v>0.2044931376071596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2923354501255427</v>
+        <v>0.2960447904963482</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -10783,19 +10783,19 @@
         <v>76853</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66484</v>
+        <v>65698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>89195</v>
+        <v>88203</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2913871784616405</v>
+        <v>0.2913871784616404</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2520722514418128</v>
+        <v>0.2490922744362198</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3381793712662332</v>
+        <v>0.3344171564447721</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -10804,19 +10804,19 @@
         <v>143467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>125791</v>
+        <v>126223</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>160708</v>
+        <v>159744</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2684349383081307</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2353626393081363</v>
+        <v>0.2361712497389585</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3006938447469338</v>
+        <v>0.2988899550314229</v>
       </c>
     </row>
     <row r="27">
@@ -10908,19 +10908,19 @@
         <v>527656</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>496912</v>
+        <v>496997</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>553749</v>
+        <v>554066</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7331746933889615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6904551604475423</v>
+        <v>0.6905741510745838</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7694308518990269</v>
+        <v>0.769870805665672</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>628</v>
@@ -10932,16 +10932,16 @@
         <v>476803</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>526173</v>
+        <v>529972</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6532602315160114</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6210761660754626</v>
+        <v>0.6210761870072162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6853855197279904</v>
+        <v>0.6903337991013824</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1070</v>
@@ -10950,19 +10950,19 @@
         <v>1029167</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>990132</v>
+        <v>990862</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1067831</v>
+        <v>1066198</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6919275315275315</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6656839233383588</v>
+        <v>0.6661746353344818</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7179219834973106</v>
+        <v>0.7168242615459595</v>
       </c>
     </row>
     <row r="29">
@@ -10979,19 +10979,19 @@
         <v>9793</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4557</v>
+        <v>4946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17738</v>
+        <v>17337</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01360766088838349</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006332602469594324</v>
+        <v>0.006873071096915112</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02464746613781196</v>
+        <v>0.02408940450001513</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -11000,19 +11000,19 @@
         <v>15417</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9763</v>
+        <v>9651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23833</v>
+        <v>23784</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02008208486681597</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01271742930945409</v>
+        <v>0.01257105521840867</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03104446491068574</v>
+        <v>0.03098076982633962</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -11021,19 +11021,19 @@
         <v>25210</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18213</v>
+        <v>17712</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36933</v>
+        <v>34875</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01694937911483533</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01224504853472666</v>
+        <v>0.01190803494733718</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02483070291337369</v>
+        <v>0.02344733967100954</v>
       </c>
     </row>
     <row r="30">
@@ -11050,19 +11050,19 @@
         <v>182237</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>155165</v>
+        <v>155708</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>212401</v>
+        <v>212101</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2532176457226552</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2156003290659474</v>
+        <v>0.2163557109577286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2951303040019003</v>
+        <v>0.2947123206735619</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>307</v>
@@ -11071,19 +11071,19 @@
         <v>250776</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>226502</v>
+        <v>224789</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>275828</v>
+        <v>276268</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3266576836171726</v>
+        <v>0.3266576836171725</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2950387221958632</v>
+        <v>0.292806236584367</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3592890906468546</v>
+        <v>0.3598631443746467</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>454</v>
@@ -11092,19 +11092,19 @@
         <v>433014</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>394310</v>
+        <v>395709</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>472665</v>
+        <v>469521</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2911230893576332</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2651018119388766</v>
+        <v>0.2660420288138582</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3177815559401964</v>
+        <v>0.3156678162803388</v>
       </c>
     </row>
     <row r="31">
@@ -11196,19 +11196,19 @@
         <v>695900</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>674705</v>
+        <v>673846</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>714963</v>
+        <v>712630</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8719761178621775</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8454181739429589</v>
+        <v>0.8443423135932255</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8958624867525805</v>
+        <v>0.8929392994783478</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>898</v>
@@ -11217,19 +11217,19 @@
         <v>701067</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>681257</v>
+        <v>680318</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>719331</v>
+        <v>718942</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8446421682823781</v>
+        <v>0.8446421682823783</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8207755349996323</v>
+        <v>0.8196449088084498</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8666465644247169</v>
+        <v>0.8661780976193276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1563</v>
@@ -11238,19 +11238,19 @@
         <v>1396966</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1366821</v>
+        <v>1365227</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1422876</v>
+        <v>1420353</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8580409874871825</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8395255209403293</v>
+        <v>0.8385463121817037</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8739551960855653</v>
+        <v>0.8724057260317314</v>
       </c>
     </row>
     <row r="33">
@@ -11267,19 +11267,19 @@
         <v>3633</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>9865</v>
+        <v>8672</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.004552535944474152</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.001313377884380399</v>
+        <v>0.001315308323670613</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01236101571998642</v>
+        <v>0.01086572566922787</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -11288,19 +11288,19 @@
         <v>3443</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1188</v>
+        <v>1227</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7541</v>
+        <v>8238</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.004147560923983568</v>
+        <v>0.004147560923983569</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.001430706968099665</v>
+        <v>0.001478283309971409</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.00908526221827958</v>
+        <v>0.009924997234990948</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -11309,19 +11309,19 @@
         <v>7076</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3574</v>
+        <v>3101</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>14226</v>
+        <v>13503</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.004346075487939058</v>
+        <v>0.004346075487939057</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00219546691438283</v>
+        <v>0.001904858127108966</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.008737640216741126</v>
+        <v>0.008293880809943902</v>
       </c>
     </row>
     <row r="34">
@@ -11338,19 +11338,19 @@
         <v>98539</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>79680</v>
+        <v>81569</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119687</v>
+        <v>119944</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1234713461933483</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09984079575815098</v>
+        <v>0.1022078829764233</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1499696702096369</v>
+        <v>0.150291711430391</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -11359,19 +11359,19 @@
         <v>125507</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>106820</v>
+        <v>107635</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>144975</v>
+        <v>145225</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1512102707936381</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1286957499307262</v>
+        <v>0.1296778672352027</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1746658166985462</v>
+        <v>0.1749670844969084</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>250</v>
@@ -11380,19 +11380,19 @@
         <v>224046</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>198927</v>
+        <v>200942</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>255231</v>
+        <v>256707</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1376129370248786</v>
+        <v>0.1376129370248785</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1221844562799803</v>
+        <v>0.1234221460018685</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1567674477219763</v>
+        <v>0.1576739948423369</v>
       </c>
     </row>
     <row r="35">
@@ -11484,19 +11484,19 @@
         <v>2797610</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4043</v>
@@ -11505,19 +11505,19 @@
         <v>2793437</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6723</v>
@@ -11526,19 +11526,19 @@
         <v>5591047</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="37">
@@ -11555,19 +11555,19 @@
         <v>20730</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13430</v>
+        <v>12835</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30720</v>
+        <v>30360</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.005871329522739726</v>
+        <v>0.005871329522739728</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003803637182875318</v>
+        <v>0.003635174016605662</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.008700713718787239</v>
+        <v>0.008598714429436207</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>49</v>
@@ -11576,19 +11576,19 @@
         <v>32194</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24206</v>
+        <v>23637</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42671</v>
+        <v>42763</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.008635370567720303</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006492662077610336</v>
+        <v>0.006340124598157043</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01144569349059791</v>
+        <v>0.01147023095718375</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>74</v>
@@ -11597,19 +11597,19 @@
         <v>52925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42418</v>
+        <v>40587</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>67404</v>
+        <v>67174</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00729092790452803</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.00584356389837013</v>
+        <v>0.005591272241889727</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009285570208554543</v>
+        <v>0.009253970882057842</v>
       </c>
     </row>
     <row r="38">
@@ -11626,19 +11626,19 @@
         <v>712452</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>658870</v>
+        <v>658607</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>763767</v>
+        <v>764936</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2017824382586246</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1866067806515566</v>
+        <v>0.1865324077430032</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2163159242041635</v>
+        <v>0.2166471123533554</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1264</v>
@@ -11647,19 +11647,19 @@
         <v>902535</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>857285</v>
+        <v>860992</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>950438</v>
+        <v>954616</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2420855472468712</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2299481975988693</v>
+        <v>0.2309425714181052</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2549345801301956</v>
+        <v>0.2560552231059673</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1934</v>
@@ -11668,19 +11668,19 @@
         <v>1614987</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1550223</v>
+        <v>1553494</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1691654</v>
+        <v>1687744</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.222481924036758</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2135600165812592</v>
+        <v>0.2140105781449059</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2330436411109989</v>
+        <v>0.2325050389575387</v>
       </c>
     </row>
     <row r="39">
